--- a/QRPH/CCG/StructureDefinition-ccg-signature.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-signature.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -380,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -484,7 +484,7 @@
     <t>Provenance.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -586,7 +586,7 @@
     <t>Provenance.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
     <t>The activity that took place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -763,7 +763,7 @@
     <t>The type of participation that a provenance agent played with respect to the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-agent-type</t>
+    <t>http://hl7.org/fhir/ValueSet/provenance-agent-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -796,7 +796,7 @@
     <t>The role that a provenance agent played with respect to the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type|4.0.1</t>
   </si>
   <si>
     <t>.typecode</t>
@@ -833,7 +833,7 @@
     <t>Provenance.agent.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson|Patient|Device|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Patient|4.0.1|Device|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -987,7 +987,7 @@
     <t>An indication of the reason that an entity signed the object.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/signature-type</t>
+    <t>http://hl7.org/fhir/ValueSet/signature-type|4.0.1</t>
   </si>
   <si>
     <t>Signature.type</t>
@@ -1536,7 +1536,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.34765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.77734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
